--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/afonsoverardi_prestserv_petrobras_com_br/Documents/Documentos/GitHub/dashboard-estoque/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_ECC0FC695A49C9D5627AA7E38357943D57C849D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41E6FCD8-8FEC-4DAD-A4D4-E4CF50D2AA65}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="28680" yWindow="945" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -34,7 +25,7 @@
     <t>Cen.</t>
   </si>
   <si>
-    <t>Nome 1</t>
+    <t>                                          Nome 1</t>
   </si>
   <si>
     <t>Dep.</t>
@@ -61,7 +52,7 @@
     <t>Bloqueado</t>
   </si>
   <si>
-    <t>Devoluções</t>
+    <t>                                                                                                                       Devoluções</t>
   </si>
   <si>
     <t>Valor total</t>
@@ -82,7 +73,7 @@
     <t>Valor total</t>
   </si>
   <si>
-    <t>Valor total</t>
+    <t>                                                                                                                  Valor total</t>
   </si>
   <si>
     <t>10.026.438</t>
@@ -94,7 +85,7 @@
     <t>1700</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                     REFAP</t>
   </si>
   <si>
     <t>0002</t>
@@ -106,7 +97,7 @@
     <t>UN</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>0,00</t>
@@ -115,7 +106,7 @@
     <t>BRL</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.050.531</t>
@@ -124,55 +115,55 @@
     <t>Derivante esfér.fech.ráp. p/mang.incên.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                               REFAP</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>27.422,29</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>I002</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>Q001</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>W002</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.050.535</t>
@@ -181,31 +172,31 @@
     <t>Esguicho de jato regulável p/mang.incên.</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>4.718,48</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.057.533</t>
@@ -214,58 +205,58 @@
     <t>Mangueira incêndio DN 40mm NBR11861 tipo</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>32.904,25</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>0012</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>I012</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>W012</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.086.154</t>
@@ -274,46 +265,46 @@
     <t>Adaptador esp. p/mang.incên.</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                    REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>24.032,16</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>TEWM</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.106.677</t>
@@ -322,25 +313,25 @@
     <t>Chave aperto p/mang.incên.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                  REFAP</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>3.346,11</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.128.265</t>
@@ -349,28 +340,28 @@
     <t>Chuveiro e lava-olhos emerg.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                    REFAP</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>9.656,79</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>0003</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.174.310</t>
@@ -379,46 +370,46 @@
     <t>Barreira absorvente Sintético comp. 3m d</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>234</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>31.524,93</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>R001</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.178.332</t>
@@ -427,7 +418,7 @@
     <t>Lona plást. PRT 6,0mx 170micra x x50m</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                             REFAP</t>
   </si>
   <si>
     <t>50,000</t>
@@ -439,64 +430,64 @@
     <t>0,000</t>
   </si>
   <si>
-    <t>0,000</t>
+    <t>                                                                                                                  0,000</t>
   </si>
   <si>
     <t>353,34</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>A001</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>WA01</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>WQ01</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.203.856</t>
@@ -505,25 +496,25 @@
     <t>Marcador esfer. p/metal pta.3mm amarela</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                               REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>105,78</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.204.718</t>
@@ -532,31 +523,31 @@
     <t>Chave p/volante válvula</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                               REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.250.138</t>
@@ -565,25 +556,25 @@
     <t>Tampão c/corrente p/hidrante 1 1/2" STOR</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>1.200,15</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.264.370</t>
@@ -592,34 +583,34 @@
     <t>Adaptador esp. p/mang.incên.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                    REFAP</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>14.447,04</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>R002</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.394.315</t>
@@ -628,40 +619,40 @@
     <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>186</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>5.214,74</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>Q000</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.426.638</t>
@@ -670,49 +661,49 @@
     <t>Mangueira incêndio DN 65mm NBR11861 tipo</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>2.785,07</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>94.692,36</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.481.629</t>
@@ -721,37 +712,37 @@
     <t>Cola a frio borr. sintética bisn 85ml</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                             REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>R095</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>W001</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.494.563</t>
@@ -760,7 +751,7 @@
     <t>Lubrificante em aerosol fr 300ml</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                        REFAP</t>
   </si>
   <si>
     <t>133</t>
@@ -769,7 +760,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>5.840,28</t>
@@ -778,25 +769,25 @@
     <t>131,74</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>570,85</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.544.315</t>
@@ -805,40 +796,40 @@
     <t>Cadeado 25x26x17x4,5x14x13mm capa termop</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>I001</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.571.996</t>
@@ -847,31 +838,31 @@
     <t>Válv hidrante 1 1/2" 300# B62</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>                                                     REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>3.024,75</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>W003</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.667.890</t>
@@ -880,25 +871,25 @@
     <t>Cadeado 30x30x20x5x17x13,5mm capa termop</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>403</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>9.210,57</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.734.499</t>
@@ -907,16 +898,16 @@
     <t>LGE(líquido gerador de espuma) 3% 1000L</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                               REFAP</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>0004</t>
@@ -925,31 +916,31 @@
     <t>13.000,000</t>
   </si>
   <si>
-    <t>0,000</t>
+    <t>                                                                                                                  0,000</t>
   </si>
   <si>
     <t>315.451,63</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>E004</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>W004</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.734.501</t>
@@ -958,25 +949,25 @@
     <t>LGE(líquido gerador de espuma) 3-6% 1000</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>14.000,000</t>
   </si>
   <si>
-    <t>0,000</t>
+    <t>                                                                                                                  0,000</t>
   </si>
   <si>
     <t>323.377,56</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.739.461</t>
@@ -985,28 +976,28 @@
     <t>Válv hidrante 2 1/2" 250# B62</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>                                                     REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>2.870,08</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.917.869</t>
@@ -1015,25 +1006,25 @@
     <t>Chuveiro de emerg.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                          REFAP</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>10,00</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.937.338</t>
@@ -1042,19 +1033,19 @@
     <t>Cadeado 25x26x17x4,5x14x13mm capa termop</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.983.802</t>
@@ -1063,19 +1054,19 @@
     <t>Tampão c/corrente p/hidrante 2 1/2" STOR</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>2.331,99</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.994.961</t>
@@ -1084,43 +1075,43 @@
     <t>Lacre plást. D.1,5x500mm plástico</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                         REFAP</t>
   </si>
   <si>
     <t>4.400</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>11.662,65</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>10.997.331</t>
@@ -1129,25 +1120,25 @@
     <t>Lacre plást. 30cm polipropil.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                     REFAP</t>
   </si>
   <si>
     <t>2.500</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>777,78</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.006.532</t>
@@ -1156,25 +1147,25 @@
     <t>Marcador esfer. p/metal pta.3mm vermelha</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                        0</t>
   </si>
   <si>
     <t>100,94</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                        0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.037.550</t>
@@ -1183,19 +1174,19 @@
     <t>Mistura gasosa cil.34L 10ppm</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                    REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.151.869</t>
@@ -1204,22 +1195,22 @@
     <t>Caixa p/bloq.múltiplo</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>                                             REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>11.533,29</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.283.594</t>
@@ -1228,19 +1219,19 @@
     <t>Chuveiro e lava-olhos emerg.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                    REFAP</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>20.266,94</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.331.124</t>
@@ -1249,13 +1240,13 @@
     <t>Extintor incên. cil.AC 6-A:40-B:C</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                         REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.378.946</t>
@@ -1264,13 +1255,13 @@
     <t>Protetor de FDS</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                       REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.706.355</t>
@@ -1279,22 +1270,22 @@
     <t>Mistura gasosa cil.58L 1,45% 60ppm 15% 2</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>M3</t>
   </si>
   <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                   0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                   0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.809.118</t>
@@ -1303,13 +1294,13 @@
     <t>Isobutileno 100ppm cil.0,1m³</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                    REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                   0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>11.874.356</t>
@@ -1318,40 +1309,40 @@
     <t>Kit absorvedor p/derramamento</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>                                                     REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>1.267,07</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>633,53</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.088.160</t>
@@ -1360,25 +1351,25 @@
     <t>LGE(líquido gerador de espuma) 1-3% 1000</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>10.000,000</t>
   </si>
   <si>
-    <t>0,000</t>
+    <t>                                                                                                                  0,000</t>
   </si>
   <si>
     <t>674.000,00</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,000</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                  0,000</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.177.566</t>
@@ -1387,25 +1378,25 @@
     <t>Etiqueta seg. Etiqueta de advertência PV</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>2.300</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>1.436,00</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.373.057</t>
@@ -1414,19 +1405,19 @@
     <t>Chuveiro e lava-olhos emerg.</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                    REFAP</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>13.794,34</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.822.361</t>
@@ -1435,25 +1426,25 @@
     <t>Etiqueta seg. Conforme anexo polietileno</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>599</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>384,90</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.856.042</t>
@@ -1462,19 +1453,19 @@
     <t>Etiqueta seg. padrão PE-2RGN-00104 polie</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>1.000</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>551,33</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.859.723</t>
@@ -1483,13 +1474,13 @@
     <t>Etiqueta seg. Conforme anexo polietileno</t>
   </si>
   <si>
-    <t>REFAP</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>                                                                REFAP</t>
+  </si>
+  <si>
+    <t>                                                                                                                       0</t>
+  </si>
+  <si>
+    <t>                                                                                                                 0,00</t>
   </si>
   <si>
     <t>12.958.534</t>
@@ -1498,56 +1489,83 @@
     <t>Etiqueta seg. Etiqueta de advertência pa</t>
   </si>
   <si>
-    <t>REFAP</t>
+    <t>                                                                REFAP</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
-    <t>0</t>
+    <t>                                                                                                                       0</t>
   </si>
   <si>
     <t>441,05</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>* Total</t>
+    <t>                                                                                                                 0,00</t>
+  </si>
+  <si>
+    <t> * Total</t>
   </si>
   <si>
     <t>1.652.492,35</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>                                                                                                                 0,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1565,378 +1583,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:M338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView rightToLeft="0" tabSelected="1" workbookViewId="0">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="130" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="11" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="3" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="17" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="6" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="14" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="41" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="19" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="12" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="5" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="70" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="12" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2100,7 +1803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +1926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +1967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2551,7 +2254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2715,7 +2418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +2664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +2705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +2746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -3084,7 +2787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +2910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +2951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +2992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -3535,7 +3238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -3658,7 +3361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3525,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +3566,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3648,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +3689,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +3730,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +3771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
@@ -4109,7 +3812,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -4150,7 +3853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -4273,7 +3976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
@@ -4355,7 +4058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -4396,7 +4099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -4642,7 +4345,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -4724,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -4765,7 +4468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4550,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +4591,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -4929,7 +4632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -4970,7 +4673,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -5011,7 +4714,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
@@ -5052,7 +4755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -5093,7 +4796,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +4837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -5175,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +4960,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
@@ -5298,7 +5001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5042,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +5083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +5124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
@@ -5544,7 +5247,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -5585,7 +5288,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -5626,7 +5329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
@@ -5667,7 +5370,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
@@ -5708,7 +5411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5452,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +5493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A95" s="2" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +5575,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
@@ -5913,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A98" s="2" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A99" s="2" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +5698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
@@ -6036,7 +5739,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A101" s="2" t="s">
         <v>0</v>
       </c>
@@ -6077,7 +5780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
@@ -6118,7 +5821,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A103" s="2" t="s">
         <v>0</v>
       </c>
@@ -6159,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
@@ -6200,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A105" s="2" t="s">
         <v>0</v>
       </c>
@@ -6241,7 +5944,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
@@ -6282,7 +5985,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
@@ -6323,7 +6026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A108" s="2" t="s">
         <v>0</v>
       </c>
@@ -6364,7 +6067,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A109" s="2" t="s">
         <v>0</v>
       </c>
@@ -6405,7 +6108,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A110" s="2" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +6149,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A111" s="2" t="s">
         <v>0</v>
       </c>
@@ -6487,7 +6190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A112" s="2" t="s">
         <v>0</v>
       </c>
@@ -6528,7 +6231,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A113" s="2" t="s">
         <v>0</v>
       </c>
@@ -6569,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A114" s="2" t="s">
         <v>0</v>
       </c>
@@ -6610,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A115" s="2" t="s">
         <v>0</v>
       </c>
@@ -6651,7 +6354,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A116" s="2" t="s">
         <v>0</v>
       </c>
@@ -6692,7 +6395,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A117" s="2" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +6436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A118" s="2" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6477,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A119" s="2" t="s">
         <v>0</v>
       </c>
@@ -6815,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A121" s="2" t="s">
         <v>0</v>
       </c>
@@ -6897,7 +6600,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A122" s="2" t="s">
         <v>0</v>
       </c>
@@ -6938,7 +6641,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
@@ -6979,7 +6682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A124" s="2" t="s">
         <v>0</v>
       </c>
@@ -7020,7 +6723,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A125" s="2" t="s">
         <v>0</v>
       </c>
@@ -7061,7 +6764,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A126" s="2" t="s">
         <v>0</v>
       </c>
@@ -7102,7 +6805,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
@@ -7143,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A128" s="2" t="s">
         <v>0</v>
       </c>
@@ -7184,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A129" s="2" t="s">
         <v>0</v>
       </c>
@@ -7225,7 +6928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A130" s="2" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +6969,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A131" s="2" t="s">
         <v>0</v>
       </c>
@@ -7307,7 +7010,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A132" s="2" t="s">
         <v>0</v>
       </c>
@@ -7348,7 +7051,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
@@ -7389,7 +7092,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A134" s="2" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +7133,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A135" s="2" t="s">
         <v>0</v>
       </c>
@@ -7471,7 +7174,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A136" s="2" t="s">
         <v>0</v>
       </c>
@@ -7512,7 +7215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A137" s="2" t="s">
         <v>0</v>
       </c>
@@ -7553,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A138" s="2" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A139" s="2" t="s">
         <v>0</v>
       </c>
@@ -7635,7 +7338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A140" s="2" t="s">
         <v>0</v>
       </c>
@@ -7676,7 +7379,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A141" s="2" t="s">
         <v>0</v>
       </c>
@@ -7717,7 +7420,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A142" s="2" t="s">
         <v>0</v>
       </c>
@@ -7758,7 +7461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A143" s="2" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +7502,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A144" s="2" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7543,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A145" s="2" t="s">
         <v>0</v>
       </c>
@@ -7881,7 +7584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +7625,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A147" s="2" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +7666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A148" s="2" t="s">
         <v>0</v>
       </c>
@@ -8004,7 +7707,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A149" s="2" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A150" s="2" t="s">
         <v>0</v>
       </c>
@@ -8086,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A151" s="2" t="s">
         <v>0</v>
       </c>
@@ -8127,7 +7830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A152" s="2" t="s">
         <v>0</v>
       </c>
@@ -8168,7 +7871,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A153" s="2" t="s">
         <v>0</v>
       </c>
@@ -8209,7 +7912,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
@@ -8250,7 +7953,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A155" s="2" t="s">
         <v>0</v>
       </c>
@@ -8291,7 +7994,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A156" s="2" t="s">
         <v>0</v>
       </c>
@@ -8332,7 +8035,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A157" s="2" t="s">
         <v>0</v>
       </c>
@@ -8373,7 +8076,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A158" s="2" t="s">
         <v>0</v>
       </c>
@@ -8414,7 +8117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -8455,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
@@ -8496,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
@@ -8537,7 +8240,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A162" s="2" t="s">
         <v>0</v>
       </c>
@@ -8578,7 +8281,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A163" s="2" t="s">
         <v>0</v>
       </c>
@@ -8619,7 +8322,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A164" s="2" t="s">
         <v>0</v>
       </c>
@@ -8660,7 +8363,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A165" s="2" t="s">
         <v>0</v>
       </c>
@@ -8701,7 +8404,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +8445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A167" s="2" t="s">
         <v>0</v>
       </c>
@@ -8783,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A168" s="2" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A169" s="2" t="s">
         <v>0</v>
       </c>
@@ -8865,7 +8568,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A170" s="2" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +8609,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A171" s="2" t="s">
         <v>0</v>
       </c>
@@ -8947,7 +8650,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
@@ -8988,7 +8691,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -9029,7 +8732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A174" s="2" t="s">
         <v>0</v>
       </c>
@@ -9070,7 +8773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A175" s="2" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +8814,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A176" s="2" t="s">
         <v>0</v>
       </c>
@@ -9152,7 +8855,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
@@ -9193,7 +8896,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A178" s="2" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +8937,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A179" s="2" t="s">
         <v>0</v>
       </c>
@@ -9275,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A180" s="2" t="s">
         <v>0</v>
       </c>
@@ -9316,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A181" s="2" t="s">
         <v>0</v>
       </c>
@@ -9357,7 +9060,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A182" s="2" t="s">
         <v>0</v>
       </c>
@@ -9398,7 +9101,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A183" s="2" t="s">
         <v>0</v>
       </c>
@@ -9439,7 +9142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A184" s="2" t="s">
         <v>0</v>
       </c>
@@ -9480,7 +9183,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A185" s="2" t="s">
         <v>0</v>
       </c>
@@ -9521,7 +9224,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A186" s="2" t="s">
         <v>0</v>
       </c>
@@ -9562,7 +9265,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A187" s="2" t="s">
         <v>0</v>
       </c>
@@ -9603,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
@@ -9644,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A189" s="2" t="s">
         <v>0</v>
       </c>
@@ -9685,7 +9388,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A190" s="2" t="s">
         <v>0</v>
       </c>
@@ -9726,7 +9429,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A191" s="2" t="s">
         <v>0</v>
       </c>
@@ -9767,7 +9470,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A192" s="2" t="s">
         <v>0</v>
       </c>
@@ -9808,7 +9511,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A193" s="2" t="s">
         <v>0</v>
       </c>
@@ -9849,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A194" s="2" t="s">
         <v>0</v>
       </c>
@@ -9890,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A195" s="2" t="s">
         <v>0</v>
       </c>
@@ -9931,7 +9634,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A196" s="2" t="s">
         <v>0</v>
       </c>
@@ -9972,7 +9675,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
@@ -10013,7 +9716,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A198" s="2" t="s">
         <v>0</v>
       </c>
@@ -10054,7 +9757,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A199" s="2" t="s">
         <v>0</v>
       </c>
@@ -10095,7 +9798,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A200" s="2" t="s">
         <v>0</v>
       </c>
@@ -10136,7 +9839,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A201" s="2" t="s">
         <v>0</v>
       </c>
@@ -10177,7 +9880,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A202" s="2" t="s">
         <v>0</v>
       </c>
@@ -10218,7 +9921,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
@@ -10259,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A204" s="2" t="s">
         <v>0</v>
       </c>
@@ -10300,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A205" s="2" t="s">
         <v>0</v>
       </c>
@@ -10341,7 +10044,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A206" s="2" t="s">
         <v>0</v>
       </c>
@@ -10382,7 +10085,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A207" s="2" t="s">
         <v>0</v>
       </c>
@@ -10423,7 +10126,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
@@ -10464,7 +10167,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A209" s="2" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A210" s="2" t="s">
         <v>0</v>
       </c>
@@ -10546,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A211" s="2" t="s">
         <v>0</v>
       </c>
@@ -10587,7 +10290,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A212" s="2" t="s">
         <v>0</v>
       </c>
@@ -10628,7 +10331,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A213" s="2" t="s">
         <v>0</v>
       </c>
@@ -10669,7 +10372,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A214" s="2" t="s">
         <v>0</v>
       </c>
@@ -10710,7 +10413,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A215" s="2" t="s">
         <v>0</v>
       </c>
@@ -10751,7 +10454,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A216" s="2" t="s">
         <v>0</v>
       </c>
@@ -10792,7 +10495,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A217" s="2" t="s">
         <v>0</v>
       </c>
@@ -10833,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
@@ -10874,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A219" s="2" t="s">
         <v>0</v>
       </c>
@@ -10915,7 +10618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A220" s="2" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10659,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +10700,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A222" s="2" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +10741,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A223" s="2" t="s">
         <v>0</v>
       </c>
@@ -11079,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A224" s="2" t="s">
         <v>0</v>
       </c>
@@ -11120,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A225" s="2" t="s">
         <v>0</v>
       </c>
@@ -11161,7 +10864,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A226" s="2" t="s">
         <v>0</v>
       </c>
@@ -11202,7 +10905,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A227" s="2" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +10946,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A228" s="2" t="s">
         <v>0</v>
       </c>
@@ -11284,7 +10987,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A229" s="2" t="s">
         <v>0</v>
       </c>
@@ -11325,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A230" s="2" t="s">
         <v>0</v>
       </c>
@@ -11366,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A231" s="2" t="s">
         <v>0</v>
       </c>
@@ -11407,7 +11110,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
@@ -11448,7 +11151,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A233" s="2" t="s">
         <v>0</v>
       </c>
@@ -11489,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
@@ -11530,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A235" s="2" t="s">
         <v>0</v>
       </c>
@@ -11571,7 +11274,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A236" s="2" t="s">
         <v>0</v>
       </c>
@@ -11612,7 +11315,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A237" s="2" t="s">
         <v>0</v>
       </c>
@@ -11653,7 +11356,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A238" s="2" t="s">
         <v>0</v>
       </c>
@@ -11694,7 +11397,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A239" s="2" t="s">
         <v>0</v>
       </c>
@@ -11735,7 +11438,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A240" s="2" t="s">
         <v>0</v>
       </c>
@@ -11776,7 +11479,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A241" s="2" t="s">
         <v>0</v>
       </c>
@@ -11817,7 +11520,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A242" s="2" t="s">
         <v>0</v>
       </c>
@@ -11858,7 +11561,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A243" s="2" t="s">
         <v>0</v>
       </c>
@@ -11899,7 +11602,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A244" s="2" t="s">
         <v>0</v>
       </c>
@@ -11940,7 +11643,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A245" s="2" t="s">
         <v>0</v>
       </c>
@@ -11981,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A246" s="2" t="s">
         <v>0</v>
       </c>
@@ -12022,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A247" s="2" t="s">
         <v>0</v>
       </c>
@@ -12063,7 +11766,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A248" s="2" t="s">
         <v>0</v>
       </c>
@@ -12104,7 +11807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
@@ -12145,7 +11848,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A250" s="2" t="s">
         <v>0</v>
       </c>
@@ -12186,7 +11889,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A251" s="2" t="s">
         <v>0</v>
       </c>
@@ -12227,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A252" s="2" t="s">
         <v>0</v>
       </c>
@@ -12268,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A253" s="2" t="s">
         <v>0</v>
       </c>
@@ -12309,7 +12012,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12053,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A255" s="2" t="s">
         <v>0</v>
       </c>
@@ -12391,7 +12094,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
@@ -12432,7 +12135,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A257" s="2" t="s">
         <v>0</v>
       </c>
@@ -12473,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A258" s="2" t="s">
         <v>0</v>
       </c>
@@ -12514,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A259" s="2" t="s">
         <v>0</v>
       </c>
@@ -12555,7 +12258,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A260" s="2" t="s">
         <v>0</v>
       </c>
@@ -12596,7 +12299,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A261" s="2" t="s">
         <v>0</v>
       </c>
@@ -12637,7 +12340,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
@@ -12678,7 +12381,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A263" s="2" t="s">
         <v>0</v>
       </c>
@@ -12719,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A264" s="2" t="s">
         <v>0</v>
       </c>
@@ -12760,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
@@ -12801,7 +12504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A266" s="2" t="s">
         <v>0</v>
       </c>
@@ -12842,7 +12545,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A267" s="2" t="s">
         <v>0</v>
       </c>
@@ -12883,7 +12586,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A268" s="2" t="s">
         <v>0</v>
       </c>
@@ -12924,7 +12627,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A269" s="2" t="s">
         <v>0</v>
       </c>
@@ -12965,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A270" s="2" t="s">
         <v>0</v>
       </c>
@@ -13006,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
@@ -13047,7 +12750,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A272" s="2" t="s">
         <v>0</v>
       </c>
@@ -13088,7 +12791,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A273" s="2" t="s">
         <v>0</v>
       </c>
@@ -13129,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A274" s="2" t="s">
         <v>0</v>
       </c>
@@ -13170,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A275" s="2" t="s">
         <v>0</v>
       </c>
@@ -13211,7 +12914,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A276" s="2" t="s">
         <v>0</v>
       </c>
@@ -13252,7 +12955,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A277" s="2" t="s">
         <v>0</v>
       </c>
@@ -13293,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A278" s="2" t="s">
         <v>0</v>
       </c>
@@ -13334,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -13375,7 +13078,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
@@ -13416,7 +13119,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A281" s="2" t="s">
         <v>0</v>
       </c>
@@ -13457,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A282" s="2" t="s">
         <v>0</v>
       </c>
@@ -13498,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A283" s="2" t="s">
         <v>0</v>
       </c>
@@ -13539,7 +13242,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A284" s="2" t="s">
         <v>0</v>
       </c>
@@ -13580,7 +13283,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A285" s="2" t="s">
         <v>0</v>
       </c>
@@ -13621,7 +13324,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A286" s="2" t="s">
         <v>0</v>
       </c>
@@ -13662,7 +13365,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
@@ -13703,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A288" s="2" t="s">
         <v>0</v>
       </c>
@@ -13744,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A289" s="2" t="s">
         <v>0</v>
       </c>
@@ -13785,7 +13488,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A290" s="2" t="s">
         <v>0</v>
       </c>
@@ -13826,7 +13529,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A291" s="2" t="s">
         <v>0</v>
       </c>
@@ -13867,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A292" s="2" t="s">
         <v>0</v>
       </c>
@@ -13908,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A293" s="2" t="s">
         <v>0</v>
       </c>
@@ -13949,7 +13652,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A294" s="2" t="s">
         <v>0</v>
       </c>
@@ -13990,7 +13693,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
@@ -14031,7 +13734,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A296" s="2" t="s">
         <v>0</v>
       </c>
@@ -14072,7 +13775,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A297" s="2" t="s">
         <v>0</v>
       </c>
@@ -14113,7 +13816,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A298" s="2" t="s">
         <v>0</v>
       </c>
@@ -14154,7 +13857,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A299" s="2" t="s">
         <v>0</v>
       </c>
@@ -14195,7 +13898,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A300" s="2" t="s">
         <v>0</v>
       </c>
@@ -14236,7 +13939,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A301" s="2" t="s">
         <v>0</v>
       </c>
@@ -14277,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A302" s="2" t="s">
         <v>0</v>
       </c>
@@ -14318,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A303" s="2" t="s">
         <v>0</v>
       </c>
@@ -14359,7 +14062,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A304" s="2" t="s">
         <v>0</v>
       </c>
@@ -14400,7 +14103,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A305" s="2" t="s">
         <v>0</v>
       </c>
@@ -14441,7 +14144,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A306" s="2" t="s">
         <v>0</v>
       </c>
@@ -14482,7 +14185,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A307" s="2" t="s">
         <v>0</v>
       </c>
@@ -14523,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A308" s="2" t="s">
         <v>0</v>
       </c>
@@ -14564,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A309" s="2" t="s">
         <v>0</v>
       </c>
@@ -14605,7 +14308,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A310" s="2" t="s">
         <v>0</v>
       </c>
@@ -14646,7 +14349,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A311" s="2" t="s">
         <v>0</v>
       </c>
@@ -14687,7 +14390,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A312" s="2" t="s">
         <v>0</v>
       </c>
@@ -14728,7 +14431,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A313" s="2" t="s">
         <v>0</v>
       </c>
@@ -14769,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A314" s="2" t="s">
         <v>0</v>
       </c>
@@ -14810,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A315" s="2" t="s">
         <v>0</v>
       </c>
@@ -14851,7 +14554,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A316" s="2" t="s">
         <v>0</v>
       </c>
@@ -14892,7 +14595,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A317" s="2" t="s">
         <v>0</v>
       </c>
@@ -14933,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A318" s="2" t="s">
         <v>0</v>
       </c>
@@ -14974,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A319" s="2" t="s">
         <v>0</v>
       </c>
@@ -15015,7 +14718,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A320" s="2" t="s">
         <v>0</v>
       </c>
@@ -15056,7 +14759,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A321" s="2" t="s">
         <v>0</v>
       </c>
@@ -15097,7 +14800,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A322" s="2" t="s">
         <v>0</v>
       </c>
@@ -15138,7 +14841,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A323" s="2" t="s">
         <v>0</v>
       </c>
@@ -15179,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A324" s="2" t="s">
         <v>0</v>
       </c>
@@ -15220,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A325" s="2" t="s">
         <v>0</v>
       </c>
@@ -15261,7 +14964,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A326" s="2" t="s">
         <v>0</v>
       </c>
@@ -15302,7 +15005,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A327" s="2" t="s">
         <v>0</v>
       </c>
@@ -15343,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A328" s="2" t="s">
         <v>0</v>
       </c>
@@ -15384,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A329" s="2" t="s">
         <v>0</v>
       </c>
@@ -15425,7 +15128,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A330" s="2" t="s">
         <v>0</v>
       </c>
@@ -15466,7 +15169,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A331" s="2" t="s">
         <v>0</v>
       </c>
@@ -15507,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A332" s="2" t="s">
         <v>0</v>
       </c>
@@ -15548,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A333" s="2" t="s">
         <v>0</v>
       </c>
@@ -15589,7 +15292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A334" s="2" t="s">
         <v>0</v>
       </c>
@@ -15630,7 +15333,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A335" s="2" t="s">
         <v>0</v>
       </c>
@@ -15671,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A336" s="2" t="s">
         <v>0</v>
       </c>
@@ -15712,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A337" s="2" t="s">
         <v>0</v>
       </c>
@@ -15753,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" outlineLevel="0" collapsed="0" hidden="0">
       <c r="A338" s="2" t="s">
         <v>0</v>
       </c>
@@ -15797,9 +15500,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
-  </headerFooter>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
